--- a/data/scheduling_DNN/predict/0.5/result27.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result27.xlsx
@@ -570,10 +570,10 @@
         <v>1.336845874786377</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.5154036283493042</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4649385511875153</v>
+        <v>0.6747673749923706</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9662530422210693</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.8761449456214905</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03332383185625076</v>
+        <v>0.008119469508528709</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8801548480987549</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.4998018741607666</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1331104189157486</v>
+        <v>0.144668385386467</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.93402099609375</v>
       </c>
       <c r="V5" t="n">
-        <v>0.504324197769165</v>
+        <v>0.4955081343650818</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1846393346786499</v>
+        <v>0.1922935247421265</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.866873025894165</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.8787178993225098</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03111610002815723</v>
+        <v>0.0001403010246576741</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8660178184509277</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.4980823993682861</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2137622088193893</v>
+        <v>0.1353764683008194</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8763430118560791</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.864819347858429</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1390535682439804</v>
+        <v>0.0001327948266407475</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9141051769256592</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.8657998442649841</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1596139818429947</v>
+        <v>0.002333405194804072</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8647379875183105</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.4997702836990356</v>
       </c>
       <c r="W10" t="n">
-        <v>0.00300980219617486</v>
+        <v>0.1332014203071594</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8567459583282471</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.902508020401001</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2560113072395325</v>
+        <v>0.002094166353344917</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8776390552520752</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.8727024793624878</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1224572956562042</v>
+        <v>2.436978138575796e-05</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9471619129180908</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.8699906468391418</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0620000846683979</v>
+        <v>0.005955404136329889</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9729969501495361</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.897538423538208</v>
       </c>
       <c r="W14" t="n">
-        <v>0.221056267619133</v>
+        <v>0.005693989340215921</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.91621994972229</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4199224710464478</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3197133541107178</v>
+        <v>0.2463111877441406</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8982129096984863</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.4884540438652039</v>
       </c>
       <c r="W16" t="n">
-        <v>0.008521061390638351</v>
+        <v>0.167902335524559</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.88407301902771</v>
       </c>
       <c r="V17" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4010510444641113</v>
       </c>
       <c r="W17" t="n">
-        <v>0.009999146685004234</v>
+        <v>0.2333102226257324</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8764221668243408</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.8617336750030518</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1200822666287422</v>
+        <v>0.0002157517883460969</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.946699857711792</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.5011699199676514</v>
       </c>
       <c r="W19" t="n">
-        <v>0.18598672747612</v>
+        <v>0.1984969228506088</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9155209064483643</v>
       </c>
       <c r="V20" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8696116209030151</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1474351733922958</v>
+        <v>0.002107662614434958</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8904790878295898</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.4037299156188965</v>
       </c>
       <c r="W21" t="n">
-        <v>0.003112411824986339</v>
+        <v>0.2369247525930405</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5245001316070557</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.8959921002388</v>
       </c>
       <c r="W22" t="n">
-        <v>0.004129057284444571</v>
+        <v>0.1380062848329544</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5269629955291748</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.499425083398819</v>
       </c>
       <c r="W23" t="n">
-        <v>0.03118461556732655</v>
+        <v>0.0007583366241306067</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.520482063293457</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.867836058139801</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01970886066555977</v>
+        <v>0.1206547990441322</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5938429832458496</v>
       </c>
       <c r="V25" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.3993863165378571</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1216130033135414</v>
+        <v>0.03781339526176453</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5185608863830566</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.5162529349327087</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01320512499660254</v>
+        <v>5.326639893610263e-06</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5147209167480469</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.399453192949295</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02017871849238873</v>
+        <v>0.0132866483181715</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5164079666137695</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.4220843315124512</v>
       </c>
       <c r="W28" t="n">
-        <v>0.02759350463747978</v>
+        <v>0.008896947838366032</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.533146858215332</v>
       </c>
       <c r="V29" t="n">
-        <v>0.782903790473938</v>
+        <v>0.5159677267074585</v>
       </c>
       <c r="W29" t="n">
-        <v>0.06237852573394775</v>
+        <v>0.0002951225615106523</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5294210910797119</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.5161741971969604</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01580879837274551</v>
+        <v>0.0001754801924107596</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5398600101470947</v>
       </c>
       <c r="V31" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.3993191719055176</v>
       </c>
       <c r="W31" t="n">
-        <v>0.1634703278541565</v>
+        <v>0.01975172758102417</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5248239040374756</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.4051540791988373</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02067060396075249</v>
+        <v>0.0143208671361208</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5155198574066162</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.4205074310302734</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02169441245496273</v>
+        <v>0.009027360938489437</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5288600921630859</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.507906436920166</v>
       </c>
       <c r="W34" t="n">
-        <v>0.006109337788075209</v>
+        <v>0.0004390556714497507</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5154280662536621</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.3975764811038971</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0006853377562947571</v>
+        <v>0.01388899609446526</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5712330341339111</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.8803160786628723</v>
       </c>
       <c r="W36" t="n">
-        <v>0.003296072594821453</v>
+        <v>0.09553232789039612</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.51521897315979</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8872542381286621</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02704406343400478</v>
+        <v>0.1384102404117584</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.511552095413208</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.4978224039077759</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02109689451754093</v>
+        <v>0.0001885044330265373</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.514030933380127</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4025028347969055</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0005446603754535317</v>
+        <v>0.01243851706385612</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5096900463104248</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.4210464954376221</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0004803019983228296</v>
+        <v>0.007857679389417171</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5171051025390625</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.4914217889308929</v>
       </c>
       <c r="W41" t="n">
-        <v>0.001891291351057589</v>
+        <v>0.0006596326129510999</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.416593074798584</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.4990690946578979</v>
       </c>
       <c r="W42" t="n">
-        <v>0.05582258850336075</v>
+        <v>0.006802293937653303</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4091649055480957</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.5138288140296936</v>
       </c>
       <c r="W43" t="n">
-        <v>0.07475874572992325</v>
+        <v>0.0109545337036252</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3865730762481689</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.4186346828937531</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0002793341118376702</v>
+        <v>0.001027946593239903</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.4037470817565918</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.5011354684829712</v>
       </c>
       <c r="W45" t="n">
-        <v>0.05645612627267838</v>
+        <v>0.009484497830271721</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4149599075317383</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.8629990220069885</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07961106300354004</v>
+        <v>0.2007390409708023</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.410552978515625</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4999239146709442</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01377784553915262</v>
+        <v>0.007987163960933685</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4101219177246094</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.5160610675811768</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05407701805233955</v>
+        <v>0.01122310385107994</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3939008712768555</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.8688284754753113</v>
       </c>
       <c r="W49" t="n">
-        <v>0.02058136276900768</v>
+        <v>0.2255562245845795</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3892829418182373</v>
       </c>
       <c r="V50" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.8636131882667542</v>
       </c>
       <c r="W50" t="n">
-        <v>0.3117930293083191</v>
+        <v>0.2249891757965088</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3935251235961914</v>
       </c>
       <c r="V51" t="n">
-        <v>0.672019362449646</v>
+        <v>0.8746362924575806</v>
       </c>
       <c r="W51" t="n">
-        <v>0.07755903899669647</v>
+        <v>0.2314679622650146</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.385037899017334</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.3993449807167053</v>
       </c>
       <c r="W52" t="n">
-        <v>0.04142211377620697</v>
+        <v>0.0002046925801550969</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3866498470306396</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.8724662661552429</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01385748106986284</v>
+        <v>0.2360175997018814</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.4439878463745117</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.8619447350502014</v>
       </c>
       <c r="W54" t="n">
-        <v>0.003587272949516773</v>
+        <v>0.1746879667043686</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3893239498138428</v>
       </c>
       <c r="V55" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.5093084573745728</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1770607829093933</v>
+        <v>0.01439628191292286</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3930799961090088</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.8726385235786438</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04628726467490196</v>
+        <v>0.2299763858318329</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3875339031219482</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.5169001221656799</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03586661070585251</v>
+        <v>0.0167356189340353</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.386138916015625</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.8671475052833557</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0001172976189991459</v>
+        <v>0.2313692569732666</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3882899284362793</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.8753495216369629</v>
       </c>
       <c r="W59" t="n">
-        <v>0.0002350020949961618</v>
+        <v>0.2372270524501801</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.4076018333435059</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.4020675718784332</v>
       </c>
       <c r="W60" t="n">
-        <v>0.001330630155280232</v>
+        <v>3.062804898945615e-05</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3860490322113037</v>
       </c>
       <c r="V61" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.8679638504981995</v>
       </c>
       <c r="W61" t="n">
-        <v>1.961401721928269e-06</v>
+        <v>0.2322418987751007</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8775758743286133</v>
       </c>
       <c r="V62" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.5160837173461914</v>
       </c>
       <c r="W62" t="n">
-        <v>0.005458071827888489</v>
+        <v>0.1306765824556351</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8603148460388184</v>
       </c>
       <c r="V63" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4091762900352478</v>
       </c>
       <c r="W63" t="n">
-        <v>0.005837512668222189</v>
+        <v>0.2035259902477264</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.886483907699585</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.4955105185508728</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2873385846614838</v>
+        <v>0.1528601944446564</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9121291637420654</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.3972766101360321</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1441532224416733</v>
+        <v>0.2650731205940247</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>1.017941951751709</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.4037242829799652</v>
       </c>
       <c r="W66" t="n">
-        <v>0.4451020359992981</v>
+        <v>0.3772633075714111</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.9620909690856934</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.4960461258888245</v>
       </c>
       <c r="W67" t="n">
-        <v>0.3118510842323303</v>
+        <v>0.2171977907419205</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9142699241638184</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.397769957780838</v>
       </c>
       <c r="W68" t="n">
-        <v>0.0936799943447113</v>
+        <v>0.2667722404003143</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8610610961914062</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.397258460521698</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1269019544124603</v>
+        <v>0.2151128798723221</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8601651191711426</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.4032164216041565</v>
       </c>
       <c r="W70" t="n">
-        <v>0.03530710563063622</v>
+        <v>0.208802118897438</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8625369071960449</v>
       </c>
       <c r="V71" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4295969903469086</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2622286975383759</v>
+        <v>0.18743696808815</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9096221923828125</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.3978035449981689</v>
       </c>
       <c r="W72" t="n">
-        <v>0.05159131065011024</v>
+        <v>0.2619583308696747</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8609669208526611</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4114952683448792</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2093940526247025</v>
+        <v>0.2020247727632523</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8632349967956543</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.4211267232894897</v>
       </c>
       <c r="W74" t="n">
-        <v>0.09147913753986359</v>
+        <v>0.1954597234725952</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8557939529418945</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.8901015520095825</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1167206540703773</v>
+        <v>0.001177011406980455</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9050168991088867</v>
       </c>
       <c r="V76" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.867185652256012</v>
       </c>
       <c r="W76" t="n">
-        <v>0.009947811253368855</v>
+        <v>0.001431203214451671</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.948369026184082</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4201938807964325</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2967718839645386</v>
+        <v>0.2789689600467682</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8685581684112549</v>
       </c>
       <c r="V78" t="n">
-        <v>0.514564037322998</v>
+        <v>0.8608478903770447</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1253118515014648</v>
+        <v>5.944838630966842e-05</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8597679138183594</v>
       </c>
       <c r="V79" t="n">
-        <v>0.466268926858902</v>
+        <v>0.5004156827926636</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1548414528369904</v>
+        <v>0.1291340291500092</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9119391441345215</v>
       </c>
       <c r="V80" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.4038897752761841</v>
       </c>
       <c r="W80" t="n">
-        <v>0.0009291483438573778</v>
+        <v>0.2581141591072083</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.875295877456665</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.5090473890304565</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1141873151063919</v>
+        <v>0.1341379582881927</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5519709587097168</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.4962474405765533</v>
       </c>
       <c r="W82" t="n">
-        <v>0.02143351174890995</v>
+        <v>0.003105110488831997</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5459668636322021</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.4987718462944031</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01340705063194036</v>
+        <v>0.002227369695901871</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5143020153045654</v>
       </c>
       <c r="V84" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.4025416374206543</v>
       </c>
       <c r="W84" t="n">
-        <v>0.07216811180114746</v>
+        <v>0.01249038241803646</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5661840438842773</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.4210413098335266</v>
       </c>
       <c r="W85" t="n">
-        <v>0.03625713288784027</v>
+        <v>0.02106641232967377</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5154368877410889</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.8697107434272766</v>
       </c>
       <c r="W86" t="n">
-        <v>0.02711002342402935</v>
+        <v>0.125509962439537</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5159511566162109</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.4035513997077942</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0001629236794542521</v>
+        <v>0.01263370551168919</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5139241218566895</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.8799007534980774</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0001176025107270107</v>
+        <v>0.1339388936758041</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5185980796813965</v>
       </c>
       <c r="V89" t="n">
-        <v>0.375304102897644</v>
+        <v>0.8734543919563293</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02053316310048103</v>
+        <v>0.1259230077266693</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5111751556396484</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.3975582122802734</v>
       </c>
       <c r="W90" t="n">
-        <v>0.001125870039686561</v>
+        <v>0.01290880981832743</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5272061824798584</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.5160713791847229</v>
       </c>
       <c r="W91" t="n">
-        <v>0.02098473906517029</v>
+        <v>0.0001239838456967846</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5197830200195312</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.5009188652038574</v>
       </c>
       <c r="W92" t="n">
-        <v>3.636764813563786e-05</v>
+        <v>0.0003558563475962728</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5253548622131348</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8694086670875549</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0006141269695945084</v>
+        <v>0.1183730214834213</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5138218402862549</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4985086917877197</v>
       </c>
       <c r="W94" t="n">
-        <v>2.895825801374485e-08</v>
+        <v>0.0002344925160286948</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5149509906768799</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.3972789645195007</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01237516012042761</v>
+        <v>0.01384670566767454</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5679571628570557</v>
       </c>
       <c r="V96" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.499182403087616</v>
       </c>
       <c r="W96" t="n">
-        <v>0.1443341374397278</v>
+        <v>0.004729967564344406</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5176000595092773</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.5033364295959473</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01299875695258379</v>
+        <v>0.0002034511417150497</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5191850662231445</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.8946350812911987</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01574497483670712</v>
+        <v>0.1409627199172974</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5165419578552246</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.4010127484798431</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01575703360140324</v>
+        <v>0.01334699802100658</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.516232967376709</v>
       </c>
       <c r="V100" t="n">
-        <v>0.656647801399231</v>
+        <v>0.3972684741020203</v>
       </c>
       <c r="W100" t="n">
-        <v>0.01971632614731789</v>
+        <v>0.01415255106985569</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5128209590911865</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.504825234413147</v>
       </c>
       <c r="W101" t="n">
-        <v>0.002320380415767431</v>
+        <v>6.393161311279982e-05</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3957960605621338</v>
       </c>
       <c r="V102" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.8681046366691589</v>
       </c>
       <c r="W102" t="n">
-        <v>0.30302494764328</v>
+        <v>0.2230753898620605</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4019348621368408</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.5159566402435303</v>
       </c>
       <c r="W103" t="n">
-        <v>0.01944472640752792</v>
+        <v>0.01300096604973078</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4170160293579102</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.5014011859893799</v>
       </c>
       <c r="W104" t="n">
-        <v>0.004386771935969591</v>
+        <v>0.007120854686945677</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4046769142150879</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.8795543313026428</v>
       </c>
       <c r="W105" t="n">
-        <v>0.02472858875989914</v>
+        <v>0.2255085557699203</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3871309757232666</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.3993368148803711</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0002588297938928008</v>
+        <v>0.0001489825081080198</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3858580589294434</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8618590831756592</v>
       </c>
       <c r="W107" t="n">
-        <v>0.02212759293615818</v>
+        <v>0.2265769690275192</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3886368274688721</v>
       </c>
       <c r="V108" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.8828486204147339</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0001757866848492995</v>
+        <v>0.2442452907562256</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3902909755706787</v>
       </c>
       <c r="V109" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.8690925240516663</v>
       </c>
       <c r="W109" t="n">
-        <v>0.1708415597677231</v>
+        <v>0.2292509227991104</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3967969417572021</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4999049305915833</v>
       </c>
       <c r="W110" t="n">
-        <v>0.05966618657112122</v>
+        <v>0.01063125766813755</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3925771713256836</v>
       </c>
       <c r="V111" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.8546183705329895</v>
       </c>
       <c r="W111" t="n">
-        <v>0.3124854266643524</v>
+        <v>0.213482066988945</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4073779582977295</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.8745364546775818</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01134365331381559</v>
+        <v>0.2182370573282242</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3933038711547852</v>
       </c>
       <c r="V113" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.4119088053703308</v>
       </c>
       <c r="W113" t="n">
-        <v>0.151823490858078</v>
+        <v>0.000346143584465608</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.4415280818939209</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.4097836017608643</v>
       </c>
       <c r="W114" t="n">
-        <v>0.008233844302594662</v>
+        <v>0.001007711980491877</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3913650512695312</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.4202384948730469</v>
       </c>
       <c r="W115" t="n">
-        <v>0.01498530246317387</v>
+        <v>0.0008336757309734821</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3902349472045898</v>
       </c>
       <c r="V116" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.889442503452301</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0944366455078125</v>
+        <v>0.2492081820964813</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3876869678497314</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.4974537193775177</v>
       </c>
       <c r="W117" t="n">
-        <v>0.07059451937675476</v>
+        <v>0.01204873993992805</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.3969278335571289</v>
       </c>
       <c r="V118" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.869740903377533</v>
       </c>
       <c r="W118" t="n">
-        <v>0.1492037177085876</v>
+        <v>0.2235521972179413</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3907389640808105</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.3972233533859253</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0075861606746912</v>
+        <v>4.204730430501513e-05</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4608781337738037</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.4093602299690247</v>
       </c>
       <c r="W120" t="n">
-        <v>0.0002949618210550398</v>
+        <v>0.00265409448184073</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3917598724365234</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.3993189632892609</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02246038429439068</v>
+        <v>5.713985592592508e-05</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8694329261779785</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.5080000162124634</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2383076995611191</v>
+        <v>0.1306337416172028</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9332039356231689</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4102156162261963</v>
       </c>
       <c r="W123" t="n">
-        <v>0.08397715538740158</v>
+        <v>0.2735167741775513</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8862729072570801</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.507975697517395</v>
       </c>
       <c r="W124" t="n">
-        <v>0.04148444160819054</v>
+        <v>0.1431087851524353</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8854210376739502</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.3972645103931427</v>
       </c>
       <c r="W125" t="n">
-        <v>0.04116398096084595</v>
+        <v>0.2382967919111252</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9433610439300537</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.5290259122848511</v>
       </c>
       <c r="W126" t="n">
-        <v>0.242879718542099</v>
+        <v>0.171673595905304</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9158749580383301</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.4110076427459717</v>
       </c>
       <c r="W127" t="n">
-        <v>0.09962701052427292</v>
+        <v>0.2548910081386566</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.924774169921875</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.8722796440124512</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1776833236217499</v>
+        <v>0.002755675232037902</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8985629081726074</v>
       </c>
       <c r="V129" t="n">
-        <v>0.381181538105011</v>
+        <v>0.4039368331432343</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2676834762096405</v>
+        <v>0.2446549534797668</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9081180095672607</v>
       </c>
       <c r="V130" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8718221783638</v>
       </c>
       <c r="W130" t="n">
-        <v>0.01167340856045485</v>
+        <v>0.001317387330345809</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8986530303955078</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.5032297372817993</v>
       </c>
       <c r="W131" t="n">
-        <v>0.06596653908491135</v>
+        <v>0.1563595831394196</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9525179862976074</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.5036996006965637</v>
       </c>
       <c r="W132" t="n">
-        <v>0.08857670426368713</v>
+        <v>0.2014379501342773</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8971390724182129</v>
       </c>
       <c r="V133" t="n">
-        <v>0.54131019115448</v>
+        <v>0.3972505629062653</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1266141980886459</v>
+        <v>0.2498885244131088</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8590140342712402</v>
       </c>
       <c r="V134" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.5465720891952515</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2384516447782516</v>
+        <v>0.09761996567249298</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8811190128326416</v>
       </c>
       <c r="V135" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.4037339687347412</v>
       </c>
       <c r="W135" t="n">
-        <v>0.281254917383194</v>
+        <v>0.2278964817523956</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9183058738708496</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.87848299741745</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2648643553256989</v>
+        <v>0.001585861435160041</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8861439228057861</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.4989889860153198</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1189106330275536</v>
+        <v>0.1498889476060867</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8654730319976807</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.3972773551940918</v>
       </c>
       <c r="W138" t="n">
-        <v>0.134116917848587</v>
+        <v>0.2192071974277496</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8683140277862549</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.5159984827041626</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2161850333213806</v>
+        <v>0.1241262406110764</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9110348224639893</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.5169070363044739</v>
       </c>
       <c r="W140" t="n">
-        <v>0.2139579951763153</v>
+        <v>0.1553367078304291</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8654930591583252</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.8746587038040161</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1299989074468613</v>
+        <v>8.400904334848747e-05</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5283851623535156</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.8685707449913025</v>
       </c>
       <c r="W142" t="n">
-        <v>0.002576075494289398</v>
+        <v>0.1157262325286865</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5162608623504639</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.8594887852668762</v>
       </c>
       <c r="W143" t="n">
-        <v>0.004604612477123737</v>
+        <v>0.1178054064512253</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5152502059936523</v>
       </c>
       <c r="V144" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.42037433385849</v>
       </c>
       <c r="W144" t="n">
-        <v>0.08563891798257828</v>
+        <v>0.009001431055366993</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5679008960723877</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.870017945766449</v>
       </c>
       <c r="W145" t="n">
-        <v>8.084027649601921e-05</v>
+        <v>0.09127470850944519</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5219681262969971</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.8960869312286377</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01805596053600311</v>
+        <v>0.1399648785591125</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5263879299163818</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.8960793018341064</v>
       </c>
       <c r="W147" t="n">
-        <v>0.02275466918945312</v>
+        <v>0.136671707034111</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5181560516357422</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.8679203391075134</v>
       </c>
       <c r="W148" t="n">
-        <v>1.385248651786242e-05</v>
+        <v>0.1223350539803505</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5164768695831299</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.8836608529090881</v>
       </c>
       <c r="W149" t="n">
-        <v>0.01588631793856621</v>
+        <v>0.1348240822553635</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5436279773712158</v>
       </c>
       <c r="V150" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.5068503618240356</v>
       </c>
       <c r="W150" t="n">
-        <v>0.06582656502723694</v>
+        <v>0.00135259295348078</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5168299674987793</v>
       </c>
       <c r="V151" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.3972402811050415</v>
       </c>
       <c r="W151" t="n">
-        <v>0.184337854385376</v>
+        <v>0.01430169306695461</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5204119682312012</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.5396045446395874</v>
       </c>
       <c r="W152" t="n">
-        <v>0.02096913009881973</v>
+        <v>0.0003683549875859171</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5157630443572998</v>
       </c>
       <c r="V153" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.8759573101997375</v>
       </c>
       <c r="W153" t="n">
-        <v>0.08503416925668716</v>
+        <v>0.129739910364151</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.512343168258667</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.5163477659225464</v>
       </c>
       <c r="W154" t="n">
-        <v>0.02896633185446262</v>
+        <v>1.603680175321642e-05</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5198540687561035</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.8979460597038269</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01818526908755302</v>
+        <v>0.142953559756279</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5411078929901123</v>
       </c>
       <c r="V156" t="n">
-        <v>0.514474630355835</v>
+        <v>0.8797283172607422</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0007093306630849838</v>
+        <v>0.1146637946367264</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.534365177154541</v>
       </c>
       <c r="V157" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.895940363407135</v>
       </c>
       <c r="W157" t="n">
-        <v>0.07820043712854385</v>
+        <v>0.1307366192340851</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5194699764251709</v>
       </c>
       <c r="V158" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.4193782806396484</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0205347090959549</v>
+        <v>0.01001834776252508</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5143251419067383</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.862480103969574</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01622937247157097</v>
+        <v>0.1212118789553642</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5204489231109619</v>
       </c>
       <c r="V160" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.8614906072616577</v>
       </c>
       <c r="W160" t="n">
-        <v>0.08739384263753891</v>
+        <v>0.1163094267249107</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5761349201202393</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.3992978930473328</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0001598328817635775</v>
+        <v>0.03127133473753929</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3901698589324951</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.4197511374950409</v>
       </c>
       <c r="W162" t="n">
-        <v>0.07004567235708237</v>
+        <v>0.0008750520646572113</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3901560306549072</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.4119090735912323</v>
       </c>
       <c r="W163" t="n">
-        <v>0.06308171898126602</v>
+        <v>0.0004731948720291257</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3911230564117432</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4031287431716919</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01278411317616701</v>
+        <v>0.0001441365166101605</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3886470794677734</v>
       </c>
       <c r="V165" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.4068673253059387</v>
       </c>
       <c r="W165" t="n">
-        <v>0.001433948753401637</v>
+        <v>0.0003319773531984538</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.390347957611084</v>
       </c>
       <c r="V166" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4052781760692596</v>
       </c>
       <c r="W166" t="n">
-        <v>0.154575526714325</v>
+        <v>0.0002229114179499447</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3928561210632324</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.4039473533630371</v>
       </c>
       <c r="W167" t="n">
-        <v>0.02168254368007183</v>
+        <v>0.000123015430290252</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3899259567260742</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4947100877761841</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01302930805832148</v>
+        <v>0.01097971387207508</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3937020301818848</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.397251695394516</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01255609653890133</v>
+        <v>1.260012322745752e-05</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.394974946975708</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.4997206032276154</v>
       </c>
       <c r="W170" t="n">
-        <v>0.01193609833717346</v>
+        <v>0.01097165234386921</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.389523983001709</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.5005075931549072</v>
       </c>
       <c r="W171" t="n">
-        <v>0.01255735289305449</v>
+        <v>0.0123173613101244</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3925371170043945</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.3972507119178772</v>
       </c>
       <c r="W172" t="n">
-        <v>0.003367437049746513</v>
+        <v>2.221797694801353e-05</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3911850452423096</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.8980429172515869</v>
       </c>
       <c r="W173" t="n">
-        <v>0.00756587041541934</v>
+        <v>0.2569049000740051</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3924310207366943</v>
       </c>
       <c r="V174" t="n">
-        <v>0.672245979309082</v>
+        <v>0.4038370251655579</v>
       </c>
       <c r="W174" t="n">
-        <v>0.07829640805721283</v>
+        <v>0.0001300969306612387</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3935651779174805</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.5160863399505615</v>
       </c>
       <c r="W175" t="n">
-        <v>0.000522953923791647</v>
+        <v>0.01501143537461758</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3920648097991943</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.3972511887550354</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01251090783625841</v>
+        <v>2.689852590265218e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4027659893035889</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.4053047895431519</v>
       </c>
       <c r="W177" t="n">
-        <v>0.01236911956220865</v>
+        <v>6.445506642194232e-06</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3918790817260742</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.4925172626972198</v>
       </c>
       <c r="W178" t="n">
-        <v>0.02106996066868305</v>
+        <v>0.01012804359197617</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3914790153503418</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.8804280161857605</v>
       </c>
       <c r="W179" t="n">
-        <v>0.01514126732945442</v>
+        <v>0.2390711307525635</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4441111087799072</v>
       </c>
       <c r="V180" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.4195944666862488</v>
       </c>
       <c r="W180" t="n">
-        <v>0.1151746734976768</v>
+        <v>0.0006010657525621355</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4043080806732178</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.8686203360557556</v>
       </c>
       <c r="W181" t="n">
-        <v>4.677650338180683e-07</v>
+        <v>0.2155858725309372</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8708980083465576</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.8657573461532593</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1545267552137375</v>
+        <v>2.642640720296185e-05</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9080779552459717</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.4051697254180908</v>
       </c>
       <c r="W183" t="n">
-        <v>0.04443465173244476</v>
+        <v>0.252916693687439</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8915300369262695</v>
       </c>
       <c r="V184" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.4973608553409576</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2924135029315948</v>
+        <v>0.1553693413734436</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8842980861663818</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.5402073860168457</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1270134001970291</v>
+        <v>0.1183984130620956</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8623919486999512</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.8622892498970032</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1300289183855057</v>
+        <v>1.054704412695173e-08</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.867523193359375</v>
       </c>
       <c r="V187" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.4053434729576111</v>
       </c>
       <c r="W187" t="n">
-        <v>0.003264665370807052</v>
+        <v>0.2136100977659225</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.895380973815918</v>
       </c>
       <c r="V188" t="n">
-        <v>0.350296825170517</v>
+        <v>0.4212921857833862</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2971166968345642</v>
+        <v>0.2247601747512817</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8954479694366455</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.5003913640975952</v>
       </c>
       <c r="W189" t="n">
-        <v>0.2418340742588043</v>
+        <v>0.1560697257518768</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8653080463409424</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.8964992761611938</v>
       </c>
       <c r="W190" t="n">
-        <v>0.104922242462635</v>
+        <v>0.0009728927980177104</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8650147914886475</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.8667523860931396</v>
       </c>
       <c r="W191" t="n">
-        <v>0.2644296884536743</v>
+        <v>3.019235009560362e-06</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9160969257354736</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.8676400780677795</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1612769067287445</v>
+        <v>0.002348066074773669</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8731458187103271</v>
       </c>
       <c r="V193" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.516253650188446</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2728621661663055</v>
+        <v>0.1273720264434814</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8641760349273682</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.8836131691932678</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1067472025752068</v>
+        <v>0.0003778021782636642</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8670120239257812</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.8705331683158875</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2147524356842041</v>
+        <v>1.23984582387493e-05</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.9181110858917236</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.8954097032546997</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1712308377027512</v>
+        <v>0.00051535275997594</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.860637903213501</v>
       </c>
       <c r="V197" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.4040472507476807</v>
       </c>
       <c r="W197" t="n">
-        <v>0.006072207354009151</v>
+        <v>0.2084750235080719</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8655040264129639</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.405174195766449</v>
       </c>
       <c r="W198" t="n">
-        <v>0.04952522739768028</v>
+        <v>0.2119035571813583</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8663921356201172</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.5159167647361755</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1601386070251465</v>
+        <v>0.1228329837322235</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.9163141250610352</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.5261152982711792</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1717347502708435</v>
+        <v>0.152255117893219</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8810501098632812</v>
       </c>
       <c r="V201" t="n">
-        <v>0.946087121963501</v>
+        <v>0.8681150674819946</v>
       </c>
       <c r="W201" t="n">
-        <v>0.004229812882840633</v>
+        <v>0.0001673153165029362</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5188970565795898</v>
       </c>
       <c r="V202" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.5410128235816956</v>
       </c>
       <c r="W202" t="n">
-        <v>0.08302778750658035</v>
+        <v>0.0004891071585007012</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5243270397186279</v>
       </c>
       <c r="V203" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.5173174738883972</v>
       </c>
       <c r="W203" t="n">
-        <v>0.1748493760824203</v>
+        <v>4.913401426165365e-05</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5216288566589355</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.8600492477416992</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0001650302583584562</v>
+        <v>0.1145283579826355</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5708370208740234</v>
       </c>
       <c r="V205" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.516095757484436</v>
       </c>
       <c r="W205" t="n">
-        <v>0.04494562372565269</v>
+        <v>0.002996605820953846</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5193920135498047</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.8757885098457336</v>
       </c>
       <c r="W206" t="n">
-        <v>0.004782592412084341</v>
+        <v>0.127018466591835</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5160720348358154</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.8851657509803772</v>
       </c>
       <c r="W207" t="n">
-        <v>0.01265339646488428</v>
+        <v>0.1362301707267761</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5146119594573975</v>
       </c>
       <c r="V208" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.4966007173061371</v>
       </c>
       <c r="W208" t="n">
-        <v>0.02630263566970825</v>
+        <v>0.0003244048566557467</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5180521011352539</v>
       </c>
       <c r="V209" t="n">
-        <v>0.534324586391449</v>
+        <v>0.4996472597122192</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0002647937799338251</v>
+        <v>0.0003387382021173835</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5169191360473633</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.860037624835968</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01284375786781311</v>
+        <v>0.1177302971482277</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.523500919342041</v>
       </c>
       <c r="V211" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.4036267995834351</v>
       </c>
       <c r="W211" t="n">
-        <v>0.08212240785360336</v>
+        <v>0.01436980441212654</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5210540294647217</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.4963995814323425</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0004133990441914648</v>
+        <v>0.000607841822784394</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5213871002197266</v>
       </c>
       <c r="V213" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.89552903175354</v>
       </c>
       <c r="W213" t="n">
-        <v>0.06885546445846558</v>
+        <v>0.1399821788072586</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5156271457672119</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.397540271282196</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01260317396372557</v>
+        <v>0.01394451037049294</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5241148471832275</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.5160791277885437</v>
       </c>
       <c r="W215" t="n">
-        <v>0.03004627861082554</v>
+        <v>6.45727850496769e-05</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5735630989074707</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.8623331189155579</v>
       </c>
       <c r="W216" t="n">
-        <v>0.02888883091509342</v>
+        <v>0.08338812738656998</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5200839042663574</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.8646195530891418</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0002061191917164251</v>
+        <v>0.1187048107385635</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5200119018554688</v>
       </c>
       <c r="V218" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.501558244228363</v>
       </c>
       <c r="W218" t="n">
-        <v>0.1797345727682114</v>
+        <v>0.0003405374882277101</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5200319290161133</v>
       </c>
       <c r="V219" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.3972666561603546</v>
       </c>
       <c r="W219" t="n">
-        <v>0.02905859798192978</v>
+        <v>0.01507131196558475</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5225260257720947</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8824664354324341</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01419419702142477</v>
+        <v>0.1295571029186249</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5201749801635742</v>
       </c>
       <c r="V221" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.3972353041172028</v>
       </c>
       <c r="W221" t="n">
-        <v>0.06901215016841888</v>
+        <v>0.01511416397988796</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3918840885162354</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.5019731521606445</v>
       </c>
       <c r="W222" t="n">
-        <v>0.02234159223735332</v>
+        <v>0.01211960148066282</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3914821147918701</v>
       </c>
       <c r="V223" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4976597428321838</v>
       </c>
       <c r="W223" t="n">
-        <v>0.01511651650071144</v>
+        <v>0.01127368863672018</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.393373966217041</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.884979784488678</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0001044695454766043</v>
+        <v>0.2416762858629227</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3867371082305908</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.4010790586471558</v>
       </c>
       <c r="W225" t="n">
-        <v>0.0128000769764185</v>
+        <v>0.0002056915400316939</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3925538063049316</v>
       </c>
       <c r="V226" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.8627552390098572</v>
       </c>
       <c r="W226" t="n">
-        <v>0.1791615188121796</v>
+        <v>0.2210893929004669</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3933191299438477</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4098091125488281</v>
       </c>
       <c r="W227" t="n">
-        <v>0.02069824934005737</v>
+        <v>0.0002719195326790214</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3964509963989258</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.8727316856384277</v>
       </c>
       <c r="W228" t="n">
-        <v>0.0116072241216898</v>
+        <v>0.2268432974815369</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3955240249633789</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.4099942743778229</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0139683810994029</v>
+        <v>0.0002093881194014102</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3917667865753174</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8591989278793335</v>
       </c>
       <c r="W230" t="n">
-        <v>0.01972342282533646</v>
+        <v>0.2184928059577942</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3931410312652588</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.8664010167121887</v>
       </c>
       <c r="W231" t="n">
-        <v>0.07781475037336349</v>
+        <v>0.2239750176668167</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3918888568878174</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.4992152452468872</v>
       </c>
       <c r="W232" t="n">
-        <v>0.001690559671260417</v>
+        <v>0.01151895336806774</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4022190570831299</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.868238091468811</v>
       </c>
       <c r="W233" t="n">
-        <v>0.01819620281457901</v>
+        <v>0.2171737402677536</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4511189460754395</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.499739795923233</v>
       </c>
       <c r="W234" t="n">
-        <v>0.04119930043816566</v>
+        <v>0.002363987034186721</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3974401950836182</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.8724852800369263</v>
       </c>
       <c r="W235" t="n">
-        <v>3.585473677958362e-05</v>
+        <v>0.2256678342819214</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3959310054779053</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.8738678097724915</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0670202225446701</v>
+        <v>0.2284235954284668</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.401885986328125</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.5013495683670044</v>
       </c>
       <c r="W237" t="n">
-        <v>0.002368397079408169</v>
+        <v>0.009893003851175308</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3871839046478271</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.5019932389259338</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01605858094990253</v>
+        <v>0.0131811834871769</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3878560066223145</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.5159828662872314</v>
       </c>
       <c r="W239" t="n">
-        <v>0.02350371889770031</v>
+        <v>0.01641649194061756</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4173870086669922</v>
       </c>
       <c r="V240" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.397260308265686</v>
       </c>
       <c r="W240" t="n">
-        <v>0.001336260931566358</v>
+        <v>0.000405084079829976</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3921442031860352</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.3972684741020203</v>
       </c>
       <c r="W241" t="n">
-        <v>0.07008038461208344</v>
+        <v>2.625815250212327e-05</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8906509876251221</v>
       </c>
       <c r="V242" t="n">
-        <v>0.65655517578125</v>
+        <v>0.4210691452026367</v>
       </c>
       <c r="W242" t="n">
-        <v>0.0548008494079113</v>
+        <v>0.2205071002244949</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9187779426574707</v>
       </c>
       <c r="V243" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.5010615587234497</v>
       </c>
       <c r="W243" t="n">
-        <v>0.009643185883760452</v>
+        <v>0.174486979842186</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.888840913772583</v>
       </c>
       <c r="V244" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.5181616544723511</v>
       </c>
       <c r="W244" t="n">
-        <v>0.01114390883594751</v>
+        <v>0.1374031156301498</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>1.241029977798462</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.3975621461868286</v>
       </c>
       <c r="W245" t="n">
-        <v>0.7012799978256226</v>
+        <v>0.711438000202179</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8686280250549316</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.4106992781162262</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1118057370185852</v>
+        <v>0.2096987366676331</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8745489120483398</v>
       </c>
       <c r="V247" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.4965610206127167</v>
       </c>
       <c r="W247" t="n">
-        <v>0.2495073676109314</v>
+        <v>0.1428748518228531</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9256248474121094</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.8626922369003296</v>
       </c>
       <c r="W248" t="n">
-        <v>0.08052194118499756</v>
+        <v>0.003960513509809971</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8719718456268311</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.8711161613464355</v>
       </c>
       <c r="W249" t="n">
-        <v>0.09634564816951752</v>
+        <v>7.32195587715978e-07</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8712148666381836</v>
       </c>
       <c r="V250" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.8638772368431091</v>
       </c>
       <c r="W250" t="n">
-        <v>0.00794488750398159</v>
+        <v>5.384080941439606e-05</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8764920234680176</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.4114632606506348</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1313336342573166</v>
+        <v>0.2162517458200455</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9451370239257812</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.4994837939739227</v>
       </c>
       <c r="W252" t="n">
-        <v>0.136188417673111</v>
+        <v>0.1986068040132523</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8735978603363037</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.4986355602741241</v>
       </c>
       <c r="W253" t="n">
-        <v>0.09794607013463974</v>
+        <v>0.1405967324972153</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8669819831848145</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8694446682929993</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1235360577702522</v>
+        <v>6.064818080631085e-06</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8662941455841064</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.5089648962020874</v>
       </c>
       <c r="W255" t="n">
-        <v>0.04557686299085617</v>
+        <v>0.1276841908693314</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9190099239349365</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.3993433713912964</v>
       </c>
       <c r="W256" t="n">
-        <v>0.07098972052335739</v>
+        <v>0.2700533270835876</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8669869899749756</v>
       </c>
       <c r="V257" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.4991223812103271</v>
       </c>
       <c r="W257" t="n">
-        <v>0.03400493040680885</v>
+        <v>0.1353243738412857</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8608980178833008</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.8754795789718628</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2302329987287521</v>
+        <v>0.000212621918763034</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8737180233001709</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.4125437140464783</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1789734810590744</v>
+        <v>0.2126817405223846</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9193201065063477</v>
       </c>
       <c r="V260" t="n">
-        <v>0.541418194770813</v>
+        <v>0.8762877583503723</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1428098529577255</v>
+        <v>0.001851783017627895</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8791558742523193</v>
       </c>
       <c r="V261" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.5032128691673279</v>
       </c>
       <c r="W261" t="n">
-        <v>0.004724697209894657</v>
+        <v>0.1413331478834152</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5433988571166992</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.8609083294868469</v>
       </c>
       <c r="W262" t="n">
-        <v>0.004332214593887329</v>
+        <v>0.1008122637867928</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5591669082641602</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.8838222622871399</v>
       </c>
       <c r="W263" t="n">
-        <v>0.04274060949683189</v>
+        <v>0.1054010987281799</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5371689796447754</v>
       </c>
       <c r="V264" t="n">
-        <v>0.654965877532959</v>
+        <v>0.4035941362380981</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0138761093840003</v>
+        <v>0.0178422387689352</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5291810035705566</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.8737247586250305</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0237991027534008</v>
+        <v>0.1187103986740112</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5217339992523193</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.5050199627876282</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0003858150157611817</v>
+        <v>0.0002793590247165412</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5201818943023682</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.4052197337150574</v>
       </c>
       <c r="W267" t="n">
-        <v>4.045483728987165e-05</v>
+        <v>0.0132162980735302</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5217471122741699</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.5162159204483032</v>
       </c>
       <c r="W268" t="n">
-        <v>0.01394123025238514</v>
+        <v>3.059408481931314e-05</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5245940685272217</v>
       </c>
       <c r="V269" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.3972477614879608</v>
       </c>
       <c r="W269" t="n">
-        <v>0.02965377271175385</v>
+        <v>0.01621708273887634</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5742490291595459</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.397268533706665</v>
       </c>
       <c r="W270" t="n">
-        <v>0.04141735658049583</v>
+        <v>0.03132209554314613</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5239529609680176</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.3972358107566833</v>
       </c>
       <c r="W271" t="n">
-        <v>0.020388163626194</v>
+        <v>0.01605723612010479</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5398259162902832</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.5078862905502319</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01855549216270447</v>
+        <v>0.001020139665342867</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5218660831451416</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.4972503781318665</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0003646168916020542</v>
+        <v>0.0006059329607523978</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5298349857330322</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.39725661277771</v>
       </c>
       <c r="W274" t="n">
-        <v>0.01592185720801353</v>
+        <v>0.0175770241767168</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5179338455200195</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.3975710570812225</v>
       </c>
       <c r="W275" t="n">
-        <v>1.30210210045334e-05</v>
+        <v>0.01448720041662455</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5214970111846924</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.4211384952068329</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01820951886475086</v>
+        <v>0.0100718317553401</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5263538360595703</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.4929623901844025</v>
       </c>
       <c r="W277" t="n">
-        <v>0.002345438580960035</v>
+        <v>0.001114988699555397</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5206100940704346</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.516015350818634</v>
       </c>
       <c r="W278" t="n">
-        <v>0.0001866318052634597</v>
+        <v>2.111166577378754e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5247068405151367</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.497850090265274</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01404493302106857</v>
+        <v>0.0007212850614450872</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5208921432495117</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.4037115871906281</v>
       </c>
       <c r="W280" t="n">
-        <v>4.745483965962194e-05</v>
+        <v>0.01373128313571215</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5698721408843994</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4036015868186951</v>
       </c>
       <c r="W281" t="n">
-        <v>0.007221541367471218</v>
+        <v>0.02764589712023735</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4098048210144043</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.8762984871864319</v>
       </c>
       <c r="W282" t="n">
-        <v>0.003190935356542468</v>
+        <v>0.2176163345575333</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3982181549072266</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8728770613670349</v>
       </c>
       <c r="W283" t="n">
-        <v>0.05946491286158562</v>
+        <v>0.2253010720014572</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3965189456939697</v>
       </c>
       <c r="V284" t="n">
-        <v>0.654166579246521</v>
+        <v>0.401077926158905</v>
       </c>
       <c r="W284" t="n">
-        <v>0.06638230383396149</v>
+        <v>2.078430225083139e-05</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3984930515289307</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.5159553289413452</v>
       </c>
       <c r="W285" t="n">
-        <v>0.002494086045771837</v>
+        <v>0.0137973865494132</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3984510898590088</v>
       </c>
       <c r="V286" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.5069747567176819</v>
       </c>
       <c r="W286" t="n">
-        <v>0.1680631190538406</v>
+        <v>0.01177738606929779</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4460391998291016</v>
       </c>
       <c r="V287" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.4105737209320068</v>
       </c>
       <c r="W287" t="n">
-        <v>0.246415451169014</v>
+        <v>0.001257800147868693</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4014420509338379</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.5013241767883301</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0006790871266275644</v>
+        <v>0.00997643917798996</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.3982100486755371</v>
       </c>
       <c r="V289" t="n">
-        <v>0.350784033536911</v>
+        <v>0.4040106534957886</v>
       </c>
       <c r="W289" t="n">
-        <v>0.002249226905405521</v>
+        <v>3.364701478858478e-05</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4037339687347412</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.5160980820655823</v>
       </c>
       <c r="W290" t="n">
-        <v>0.002202524105086923</v>
+        <v>0.01262569427490234</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3960211277008057</v>
       </c>
       <c r="V291" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4999239444732666</v>
       </c>
       <c r="W291" t="n">
-        <v>0.1704635471105576</v>
+        <v>0.01079579535871744</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3938968181610107</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8617705702781677</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0002146352198906243</v>
+        <v>0.2189058512449265</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4509978294372559</v>
       </c>
       <c r="V293" t="n">
-        <v>0.944080114364624</v>
+        <v>0.3993822336196899</v>
       </c>
       <c r="W293" t="n">
-        <v>0.2431301325559616</v>
+        <v>0.002664169762283564</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3914289474487305</v>
       </c>
       <c r="V294" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.5018677711486816</v>
       </c>
       <c r="W294" t="n">
-        <v>0.0001108801661757752</v>
+        <v>0.01219673361629248</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3921470642089844</v>
       </c>
       <c r="V295" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.4955868721008301</v>
       </c>
       <c r="W295" t="n">
-        <v>0.1729135066270828</v>
+        <v>0.0106997936964035</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3929870128631592</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.5069195628166199</v>
       </c>
       <c r="W296" t="n">
-        <v>0.02201943099498749</v>
+        <v>0.01298062596470118</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3941469192504883</v>
       </c>
       <c r="V297" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.8802862763404846</v>
       </c>
       <c r="W297" t="n">
-        <v>0.001880621537566185</v>
+        <v>0.2363314777612686</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3950181007385254</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.8862826824188232</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0002350825088797137</v>
+        <v>0.2413408905267715</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3963429927825928</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.4996807873249054</v>
       </c>
       <c r="W299" t="n">
-        <v>0.01112869940698147</v>
+        <v>0.01067870017141104</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4352798461914062</v>
       </c>
       <c r="V300" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4040766358375549</v>
       </c>
       <c r="W300" t="n">
-        <v>0.1419009417295456</v>
+        <v>0.0009736403590068221</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3999040126800537</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.4101812243461609</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0043987100943923</v>
+        <v>0.0001056210821843706</v>
       </c>
     </row>
     <row r="302" spans="1:23">
